--- a/Other/Online jwellery shopping app.xlsx
+++ b/Other/Online jwellery shopping app.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="190">
   <si>
     <t>test case id</t>
   </si>
@@ -583,6 +583,162 @@
 2) Click on home
 3) Click on poster 
 4) click on back icon</t>
+  </si>
+  <si>
+    <t>Check Jwellary manu</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on home
+3) Click on Jwellary</t>
+  </si>
+  <si>
+    <t>Show jwellary page</t>
+  </si>
+  <si>
+    <t>Show blank page</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on home
+3) Click on kids</t>
+  </si>
+  <si>
+    <t>Check Kids wear manu</t>
+  </si>
+  <si>
+    <t>Show kids wear page</t>
+  </si>
+  <si>
+    <t>Check mens wear manu</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on home
+3) Click on mens wear</t>
+  </si>
+  <si>
+    <t>mans wear page</t>
+  </si>
+  <si>
+    <t>Check Home &amp; living</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on home
+3) Click on Home &amp; Living</t>
+  </si>
+  <si>
+    <t>Show Home &amp; living page</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on home
+3) Click on Home &amp; Living
+4) Click on Poster</t>
+  </si>
+  <si>
+    <t>Show Badsheet page</t>
+  </si>
+  <si>
+    <t>Check postar of bad sheet</t>
+  </si>
+  <si>
+    <t>Check back icon</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on home
+3) Click on Home &amp; Living
+4) Click on Poster 
+5) Click on back icon</t>
+  </si>
+  <si>
+    <t>Check Figurines Manu</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on home
+3) Click on Home &amp; Living
+4) Click on Figurines</t>
+  </si>
+  <si>
+    <t>Show Figurines page</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on home
+3) Click on Home &amp; Living
+4) Click on Figurines
+5) Click on back icon</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on home
+3) Click on Home &amp; Living
+4) Click on back</t>
+  </si>
+  <si>
+    <t>Show home page</t>
+  </si>
+  <si>
+    <t>Check Luxe manu</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on Luxe</t>
+  </si>
+  <si>
+    <t>Show Luxe page</t>
+  </si>
+  <si>
+    <t>Check eid poster</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on Luxe
+3) Click EID edit poster</t>
+  </si>
+  <si>
+    <t>Show Eid Edits Product Page</t>
+  </si>
+  <si>
+    <t>Check Bridal Trousseau  manu</t>
+  </si>
+  <si>
+    <t>Check Back Icon</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on Luxe
+3) Click EID edit poster
+4) Click on back Icon</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on Luxe
+3) Click on Bridal Trousseau Manu</t>
+  </si>
+  <si>
+    <t>Show Bridal Trousseau page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check Search icon</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on serch icon</t>
+  </si>
+  <si>
+    <t>Show Search bar</t>
+  </si>
+  <si>
+    <t>1) open App
+2) Click on serch icon
+3) Click on back icon</t>
+  </si>
+  <si>
+    <t>Show Home Page</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:H46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2291,7 @@
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>113</v>
@@ -2161,7 +2317,7 @@
     </row>
     <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>116</v>
@@ -2187,7 +2343,7 @@
     </row>
     <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>73</v>
@@ -2211,57 +2367,606 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="B48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="B49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
